--- a/fechamentos_2022/janeiro_2022/PositivoJaneiro22_5.xlsx
+++ b/fechamentos_2022/janeiro_2022/PositivoJaneiro22_5.xlsx
@@ -1396,7 +1396,7 @@
   <dimension ref="A1:BI163"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:XFD113"/>
+      <selection activeCell="A2" sqref="A2:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
